--- a/a.xlsx
+++ b/a.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,15 +413,30 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>qqq</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>11</t>
@@ -428,19 +444,29 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>No Description</t>
+          <t>asa</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t> </t>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>sas</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>asas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -450,17 +476,115 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>sa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>asa</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>asa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>qs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sss</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ssss</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>sssss</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/a.xlsx
+++ b/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,7 +488,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -552,7 +552,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,7 +569,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sss</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -585,6 +585,23 @@
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t> </t>
         </is>

--- a/a.xlsx
+++ b/a.xlsx
@@ -413,201 +413,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>qqq</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>asa</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>sas</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>asas</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>asa</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>asa</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>qs</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>sa</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1111</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ssss</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>sssss</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -413,13 +413,376 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dd</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>33/33/3333</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>33/33/3333</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>22/22/2222</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>33/33/3333</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>33/33/3333</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20/02/2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>22/22/2004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,23 +412,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>22/22/2222</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -439,29 +438,34 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>ss</t>
+          <t>22/22/2222</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
           <t>No Description</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dd</t>
+          <t>11/11/1111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -471,12 +475,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>33/33/3333</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -488,12 +492,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d</t>
+          <t>11/11/1111</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,12 +507,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>33/33/33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -520,12 +524,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>33/33/3333</t>
+          <t>88/88/8888</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,12 +539,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>33/22/3333</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -552,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -561,21 +565,6 @@
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
         <is>
           <t>No Description</t>
         </is>
@@ -584,30 +573,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22/22/2222</t>
+          <t>20/20/2020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
         <is>
           <t>No Description</t>
         </is>
@@ -616,30 +590,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33/33/3333</t>
+          <t>33/22/2222</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>No Description</t>
         </is>
@@ -648,30 +607,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>33/33/3333</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
         <is>
           <t>No Description</t>
         </is>
@@ -680,105 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>33/33/3333</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20/02/2003</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>22/22/2004</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>new row</t>
         </is>
       </c>
     </row>

--- a/a.xlsx
+++ b/a.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,219 +413,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>22/22/2222</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>22/22/2222</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>11/11/1111</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>33/33/3333</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>11/11/1111</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>33/33/33</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>88/88/8888</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>33/22/3333</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>33/33/3333</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20/20/2020</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>33/22/2222</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>33/33/3333</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>No Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>new row</t>
+          <t>400</t>
         </is>
       </c>
     </row>

--- a/a.xlsx
+++ b/a.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,9 +422,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>22/2/2222</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>22/22/2222</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>400</t>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>22/2/222</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2/2/222</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>22/22/2222</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>No Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>new row</t>
         </is>
       </c>
     </row>
